--- a/output/fit_clients/fit_round_186.xlsx
+++ b/output/fit_clients/fit_round_186.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1932619548.44959</v>
+        <v>2175880357.237298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1054473072581162</v>
+        <v>0.07787703699212639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03698547660835007</v>
+        <v>0.02861974226105374</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>966309760.7553859</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2011373084.073036</v>
+        <v>1934421993.25786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321688066620892</v>
+        <v>0.1134919567002824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04719152778633424</v>
+        <v>0.04434680628977378</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1005686583.832341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3997673662.488855</v>
+        <v>4772075684.469162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1316610738320042</v>
+        <v>0.159071653395199</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02405341749476047</v>
+        <v>0.02735925597396595</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1998836845.241267</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2765988419.385235</v>
+        <v>3639779364.072787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1025061833030617</v>
+        <v>0.06773220177851061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03605370136759952</v>
+        <v>0.04170400845749107</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1382994295.020845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2713603367.353128</v>
+        <v>2019612254.960357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1018622242861365</v>
+        <v>0.1041472583797153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0538259906817873</v>
+        <v>0.03875064829857269</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1356801636.01494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2772170840.532661</v>
+        <v>3055916266.420638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06557647977421543</v>
+        <v>0.07975487559589971</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04493191237663544</v>
+        <v>0.03713857192471038</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>58</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1386085407.075926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3350790490.37908</v>
+        <v>2878371969.297539</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2076278753900655</v>
+        <v>0.1683814291038061</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02913089332356097</v>
+        <v>0.02628065500306348</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1675395338.541596</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1660497257.752306</v>
+        <v>2139997897.4506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1412503023422666</v>
+        <v>0.1321524823481271</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0279067709619201</v>
+        <v>0.03092492740318168</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>830248702.5760896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3873341331.933626</v>
+        <v>5107901336.834664</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1877169307420256</v>
+        <v>0.1539942596400151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04623097940908692</v>
+        <v>0.03560609368371088</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1936670678.051438</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4119547250.418849</v>
+        <v>3216706371.767632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1857423178919264</v>
+        <v>0.1457979447936703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04790152126578856</v>
+        <v>0.03881447637465062</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2059773646.242916</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2774491683.522353</v>
+        <v>2032250001.981555</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1268077792799508</v>
+        <v>0.1364706534676123</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04579289113007273</v>
+        <v>0.04160634304207188</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1387245839.109257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4409627557.754015</v>
+        <v>3372871850.942544</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06166803978751304</v>
+        <v>0.07090322208180742</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02861472092515484</v>
+        <v>0.02489713116513604</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>62</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2204813812.968039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2906333017.005562</v>
+        <v>3133001969.90526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.126096157059378</v>
+        <v>0.1321428041523794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03892136892730565</v>
+        <v>0.03272567200486143</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1453166549.690904</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1762885281.85303</v>
+        <v>1713075676.15316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.073402232026672</v>
+        <v>0.07837909105988575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03115312591877977</v>
+        <v>0.04166569303693084</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>881442786.0045718</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1810946032.748146</v>
+        <v>2665704304.016467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07915297148800986</v>
+        <v>0.1091977656966858</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04239795092101993</v>
+        <v>0.04846478263626351</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>29</v>
-      </c>
-      <c r="J16" t="n">
-        <v>905473108.7329348</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4137075339.48124</v>
+        <v>4202344887.294179</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632954323921902</v>
+        <v>0.1190832404416238</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04409557343811579</v>
+        <v>0.03515387491364146</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2068537697.531761</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3339891544.238467</v>
+        <v>3317001993.300931</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1651149675115288</v>
+        <v>0.1802648637625666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0273182947561802</v>
+        <v>0.02400560036671511</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1669945777.748713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1139194889.29422</v>
+        <v>1183476629.623466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1832569019459356</v>
+        <v>0.178526760152083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02261982111496853</v>
+        <v>0.01814457500836613</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>569597507.7471303</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2131924045.360728</v>
+        <v>2799858314.988841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1559567520217954</v>
+        <v>0.1557826083895437</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03133470576246553</v>
+        <v>0.03066106130715738</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1065962034.948169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2315779297.468215</v>
+        <v>1661157569.703466</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07833561298188886</v>
+        <v>0.08102561078693475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04616835849889103</v>
+        <v>0.03706731643546509</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1157889654.468796</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2578654498.007936</v>
+        <v>3058263260.457236</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08804609991766728</v>
+        <v>0.1385292059947039</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05085871892969072</v>
+        <v>0.05168488581505461</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1289327335.743811</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1140433196.988924</v>
+        <v>943739878.6174499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1701366728189799</v>
+        <v>0.1452309148067021</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04108068889632289</v>
+        <v>0.04551543288880408</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>570216644.9901874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2516301846.046276</v>
+        <v>2537540386.370668</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1116955207682132</v>
+        <v>0.1429982249654587</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02651768119707073</v>
+        <v>0.03159278241503276</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1258150990.773926</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1400293423.938085</v>
+        <v>1437804387.490165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08987914185184857</v>
+        <v>0.1142974798177758</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02392443451340689</v>
+        <v>0.01972038872964041</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>700146683.8436313</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102409213.671256</v>
+        <v>1051042714.001307</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08290612055241592</v>
+        <v>0.07634512799760922</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02415899873602321</v>
+        <v>0.03689974595619347</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>551204603.9276685</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4071860660.859493</v>
+        <v>4369922778.880066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1122178426006617</v>
+        <v>0.100346717887759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02287406112224659</v>
+        <v>0.02197192141336031</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2035930336.972625</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2580494643.217307</v>
+        <v>3613072100.677108</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1054031357316031</v>
+        <v>0.1514723470693486</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04829055227867199</v>
+        <v>0.04265122991427066</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>60</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1290247296.396783</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4497970995.395002</v>
+        <v>4276314705.144188</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1093097636857278</v>
+        <v>0.09349370987007541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03192040759535242</v>
+        <v>0.04278606071244474</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2248985480.066231</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2187754215.054862</v>
+        <v>1496382180.177662</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1262864835437252</v>
+        <v>0.1299405111392872</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03036160452658172</v>
+        <v>0.03833194860507075</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1093877166.320512</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1191929951.277832</v>
+        <v>1235124801.854576</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1020839735933447</v>
+        <v>0.08713187086207125</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05044777505544747</v>
+        <v>0.03276965293791497</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>595964928.9847561</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1818349589.803843</v>
+        <v>1705330979.858718</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09487257654089187</v>
+        <v>0.08100779045046014</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02963242878231468</v>
+        <v>0.02467671976810314</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>909174929.1849374</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2134381332.802384</v>
+        <v>2378542314.347043</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2003882412291191</v>
+        <v>0.203729241623525</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04664783083870624</v>
+        <v>0.04154701765608467</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>57</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1067190735.726159</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1046101497.798224</v>
+        <v>1417292417.535043</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1204749035459595</v>
+        <v>0.08416617562512191</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02732136625951309</v>
+        <v>0.02514738654643769</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>523050779.1413609</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>861485317.5384456</v>
+        <v>1251738172.786468</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1019534245457003</v>
+        <v>0.09591545429995676</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03394820326256226</v>
+        <v>0.02941396837239089</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>430742707.6979685</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3084889172.408337</v>
+        <v>3112468512.794981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1307109513808525</v>
+        <v>0.1782819748054383</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02667996089038388</v>
+        <v>0.02082212000811688</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>47</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1542444561.303221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2564229557.757893</v>
+        <v>2122621471.379488</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07772351427541184</v>
+        <v>0.07605502388204924</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02672871737229057</v>
+        <v>0.03514708459942451</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>51</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1282114883.745131</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1427602158.870772</v>
+        <v>1355763444.276514</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08084184543631376</v>
+        <v>0.1165423439038848</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02504031146898648</v>
+        <v>0.03360347572724261</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>713801138.8933641</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1721904373.614787</v>
+        <v>1921429056.606642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1842876777002613</v>
+        <v>0.1774638176005514</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03043551394226629</v>
+        <v>0.02807541038099995</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>860952223.5398388</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152745747.461335</v>
+        <v>1177519901.891176</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1312487233627038</v>
+        <v>0.1379704001271548</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04979513368539149</v>
+        <v>0.05798095323268052</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>576372926.8084242</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1933485260.704226</v>
+        <v>2016950416.671769</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1561888768925752</v>
+        <v>0.1401677430951307</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03686534174716143</v>
+        <v>0.03112080806070538</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>966742711.0425174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2993693897.492125</v>
+        <v>4196033277.067136</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1227460138279638</v>
+        <v>0.1165467454542284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0370827744995904</v>
+        <v>0.02829536364646297</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>61</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1496846908.726368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2594156815.80785</v>
+        <v>1972813680.477316</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1707094906237978</v>
+        <v>0.1915906098500952</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02530199894073653</v>
+        <v>0.02317009996690164</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>64</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1297078447.072831</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2099500000.26845</v>
+        <v>2108889150.01321</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06861805713545668</v>
+        <v>0.08427437465086149</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03158817895417221</v>
+        <v>0.02701670077566086</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1049750126.305242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2519055252.359046</v>
+        <v>2053940359.764446</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1239183566780684</v>
+        <v>0.12771801018649</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0403007676201816</v>
+        <v>0.0493266914042844</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1259527669.360488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4769179494.020327</v>
+        <v>5617540754.827929</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1268409679328919</v>
+        <v>0.1759640761763551</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03819328151547836</v>
+        <v>0.05462680066387293</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>66</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2384589760.592268</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4040935951.000645</v>
+        <v>4517756878.575393</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1521301756790734</v>
+        <v>0.1658311007405912</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04202449872125923</v>
+        <v>0.03934244965640269</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>50</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2020467976.935705</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3299003520.103148</v>
+        <v>4576967646.582115</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06675331866002021</v>
+        <v>0.06639213955763494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02555364147612866</v>
+        <v>0.02849051800011351</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1649501835.136965</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1533666664.8772</v>
+        <v>1795823509.312162</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1592702620324882</v>
+        <v>0.171619757604805</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04018458292412164</v>
+        <v>0.0415604421469899</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>766833359.2154996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3787489632.948054</v>
+        <v>4152175091.31344</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1186734440846027</v>
+        <v>0.1447002901586466</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04465999477331568</v>
+        <v>0.04172971127255301</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>63</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1893744820.274116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1010967753.286822</v>
+        <v>1073496607.041555</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1258740306117311</v>
+        <v>0.1613777420507835</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03815331546665957</v>
+        <v>0.04978209778584823</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>505483958.7946532</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4822520227.29087</v>
+        <v>5187165584.454902</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1221818864153087</v>
+        <v>0.08695861049102832</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03831862332450554</v>
+        <v>0.05116887863091175</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>77</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2411260121.68494</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2953963333.878637</v>
+        <v>2743308857.101235</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1620394910149112</v>
+        <v>0.1942270642881997</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02214281399215747</v>
+        <v>0.02874131176342039</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>53</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1476981702.529662</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3023251295.532742</v>
+        <v>4173235511.194564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1451987328051186</v>
+        <v>0.1400046716631478</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04541870004670295</v>
+        <v>0.04890898022222353</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>61</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1511625635.117081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3860984728.202072</v>
+        <v>3496470683.535527</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1945129962243442</v>
+        <v>0.2110242900954036</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02061641160836346</v>
+        <v>0.03188815590396788</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1930492332.874388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1841402543.666994</v>
+        <v>1140768292.852282</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1481877759988721</v>
+        <v>0.1384334596507195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04262166397209709</v>
+        <v>0.04303149780619776</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>920701263.4565301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4572543743.847294</v>
+        <v>4023356566.622565</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1478358004807233</v>
+        <v>0.1346979697006533</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02242989982694996</v>
+        <v>0.01955998586546307</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>59</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2286272008.346922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1395632030.483576</v>
+        <v>1631773049.390668</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668916823966988</v>
+        <v>0.1658572989898457</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03539803726800098</v>
+        <v>0.03808511864750316</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>697816055.8753463</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4342434667.647939</v>
+        <v>5366359483.664217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1245939749565473</v>
+        <v>0.09148681023374587</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04931262791041298</v>
+        <v>0.04173185070465973</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>52</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2171217293.236264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2897024338.003403</v>
+        <v>3082356233.26467</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1449758551344372</v>
+        <v>0.2014582118268599</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02067283550411789</v>
+        <v>0.02826773196206272</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1448512228.523838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2164209301.745122</v>
+        <v>2269961271.358542</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1085688781965185</v>
+        <v>0.1498065824396767</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02056016427897979</v>
+        <v>0.02767334745067696</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1082104710.129259</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2080235342.808519</v>
+        <v>1337400819.705156</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1922025896747831</v>
+        <v>0.1283869418420063</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04211707256021417</v>
+        <v>0.03770971095564882</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1040117741.458003</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3931982820.191944</v>
+        <v>4245912668.734623</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09760942692358524</v>
+        <v>0.07600675021808129</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0427949386318738</v>
+        <v>0.04072874343194448</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>53</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1965991475.485622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4106208717.898464</v>
+        <v>4907029748.24466</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1775530643824488</v>
+        <v>0.1258540195509671</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0248892638770387</v>
+        <v>0.02159375938221527</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>58</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2053104402.259959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3907354746.585994</v>
+        <v>3858377526.526446</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1178785727124323</v>
+        <v>0.1095717739740587</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02513429536997044</v>
+        <v>0.02949726655260615</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1953677397.355992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5679648973.223282</v>
+        <v>3992604903.149728</v>
       </c>
       <c r="F66" t="n">
-        <v>0.117133935283851</v>
+        <v>0.1190061607227635</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04298763974270881</v>
+        <v>0.04882296867778408</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>54</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2839824550.199851</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3446714725.545987</v>
+        <v>2398286288.71914</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09659664461945999</v>
+        <v>0.06997273215783439</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03774119261768101</v>
+        <v>0.0316944004152526</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>60</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1723357343.161733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4423756858.040962</v>
+        <v>5349422774.369754</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1109501249414945</v>
+        <v>0.1258557526343764</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04892899949115775</v>
+        <v>0.05034008041728045</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2211878450.462925</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2479220852.903569</v>
+        <v>1895776167.770851</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1502155260409338</v>
+        <v>0.1784738947565906</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0455006546129923</v>
+        <v>0.05168887144815149</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1239610493.316876</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2524228153.118312</v>
+        <v>3094297065.043001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09742031709316266</v>
+        <v>0.06669134927609585</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03615560524193601</v>
+        <v>0.03974864013596661</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1262114022.56984</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4916054101.572611</v>
+        <v>3702310930.640475</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1204346955618492</v>
+        <v>0.1598721190271352</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02946534610171377</v>
+        <v>0.02391459788474307</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>68</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2458027150.202175</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1912640873.622128</v>
+        <v>2015492564.748134</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07580069677972119</v>
+        <v>0.09652803278410026</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04427324362274667</v>
+        <v>0.03770995792234383</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>956320397.2183712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3423821729.55002</v>
+        <v>3585883327.248491</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09267474171174099</v>
+        <v>0.08339740583280432</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03566382753862594</v>
+        <v>0.04552665293970059</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>71</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1711910821.919693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2674205243.99548</v>
+        <v>3434006080.399233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1184779721697553</v>
+        <v>0.1229430193226451</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02498844460009921</v>
+        <v>0.02163386812020803</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>63</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1337102715.554139</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1786125787.486929</v>
+        <v>2073740225.371055</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1559277435313203</v>
+        <v>0.1381692407063908</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02584807824928104</v>
+        <v>0.03478128351361847</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>893062877.9556373</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4330324950.631143</v>
+        <v>5326910051.724292</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1161362180009173</v>
+        <v>0.08327483622240099</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02344463877461451</v>
+        <v>0.02765557304005771</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2165162473.827822</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1415586264.514076</v>
+        <v>1659061156.35016</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1384959661977591</v>
+        <v>0.1360062012370475</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03105455275900281</v>
+        <v>0.02661326764237452</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>707793107.4497997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4160215119.310278</v>
+        <v>4687920877.510845</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08634958403389395</v>
+        <v>0.1362962443551318</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04780916104638913</v>
+        <v>0.05027231992846807</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2080107513.906411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1436356549.871763</v>
+        <v>1542780979.235437</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1271072254003824</v>
+        <v>0.1256412041934719</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03781657263572055</v>
+        <v>0.02969875319978572</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>718178297.9581857</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5596822398.46613</v>
+        <v>3631146765.349106</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08394388127157108</v>
+        <v>0.09752942479147007</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03747933580006097</v>
+        <v>0.02348208242536042</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>39</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2798411278.098242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4049265778.900105</v>
+        <v>5197634100.601538</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09483719659436383</v>
+        <v>0.1336088010426892</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02045678799545213</v>
+        <v>0.02651533811705946</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2024632854.462681</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5168263258.064645</v>
+        <v>4526737421.244604</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1319636029025183</v>
+        <v>0.1492776601447307</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0195360217605144</v>
+        <v>0.02727395267351069</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>67</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2584131603.563454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1590237602.144201</v>
+        <v>2224216510.720276</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1061823918964775</v>
+        <v>0.1359294166546094</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03309893566541507</v>
+        <v>0.04141855781153194</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>795118735.3922634</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1997922434.575161</v>
+        <v>2479080558.561242</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08062459035798245</v>
+        <v>0.08468494664045816</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04973278844731967</v>
+        <v>0.03212378293188672</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>998961222.5818558</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3474569904.226448</v>
+        <v>3259551260.538675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.150997861563294</v>
+        <v>0.1197404017303477</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05082233462962042</v>
+        <v>0.03498210417812958</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1737285064.649323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2674788543.833807</v>
+        <v>2202976377.351137</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1176254678206165</v>
+        <v>0.1583641464710479</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0273986028562288</v>
+        <v>0.01745702686670936</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1337394393.365253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1451935565.415819</v>
+        <v>925315093.289529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1567415853190134</v>
+        <v>0.1885200830298234</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0415400173764969</v>
+        <v>0.02969195429654561</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>725967902.8486186</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3050903609.326514</v>
+        <v>2362706005.920171</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1466949069072576</v>
+        <v>0.1701879950188241</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03779049273084553</v>
+        <v>0.03639610757772063</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>74</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1525451840.119825</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2384477340.048737</v>
+        <v>2147318446.650178</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1497141877450801</v>
+        <v>0.1082996450814464</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03960622198553247</v>
+        <v>0.03496126328578113</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1192238753.220466</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1503051470.166459</v>
+        <v>1347766471.808772</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1309601984558585</v>
+        <v>0.09106949570689797</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03758196593205019</v>
+        <v>0.05253936564482006</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>751525714.3466007</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1707532809.021815</v>
+        <v>1699010351.199523</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1485019317642689</v>
+        <v>0.1958030381532324</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04951485148865944</v>
+        <v>0.05427129685289925</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>853766415.7299545</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2513829299.003042</v>
+        <v>2641774400.646186</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07283365534560937</v>
+        <v>0.06814001605440252</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02898060055742283</v>
+        <v>0.03550648239458678</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1256914634.456052</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4271737455.767513</v>
+        <v>3837799884.859984</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09721701265394685</v>
+        <v>0.1058007106316569</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04797381807481588</v>
+        <v>0.04086078492528493</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2135868710.886551</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2496969189.08106</v>
+        <v>2335330773.850674</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1107116627421038</v>
+        <v>0.1197599495648996</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04189736966196084</v>
+        <v>0.0299427230788799</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1248484657.60857</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2311804202.909412</v>
+        <v>2087369741.301433</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1112848499120713</v>
+        <v>0.09024788057503115</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04181841101874285</v>
+        <v>0.04428455120621119</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>44</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1155902151.197839</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1877709703.301871</v>
+        <v>1816946250.946812</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1215443123882817</v>
+        <v>0.1398372798620843</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04520491900167998</v>
+        <v>0.03865075883930235</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>938854851.6534293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3453632096.945978</v>
+        <v>5220284692.064131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1354350435480888</v>
+        <v>0.1167221630463381</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02170300982402391</v>
+        <v>0.0274124954149705</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1726816060.892016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2999368896.198039</v>
+        <v>3729068827.333219</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0978421468097226</v>
+        <v>0.0841370819764614</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01981064742340638</v>
+        <v>0.03281888544052872</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1499684432.74695</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3279296429.111921</v>
+        <v>2114364543.581274</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09702815686444888</v>
+        <v>0.1090465236693336</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03019045988738537</v>
+        <v>0.02914770354014677</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>58</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1639648220.727779</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3541808895.045434</v>
+        <v>4682109703.407691</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1115314139937898</v>
+        <v>0.126012772071259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01971885378859055</v>
+        <v>0.02809524385416363</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>56</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1770904481.583403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2468382210.591394</v>
+        <v>2500538506.384017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155244585681353</v>
+        <v>0.2169654434814571</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04052113467971372</v>
+        <v>0.0405126092774877</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1234191124.113685</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_186.xlsx
+++ b/output/fit_clients/fit_round_186.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2175880357.237298</v>
+        <v>2023516339.856167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07787703699212639</v>
+        <v>0.09759569987552232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02861974226105374</v>
+        <v>0.03253935968392106</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1934421993.25786</v>
+        <v>1682371238.971043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1134919567002824</v>
+        <v>0.1576912212077933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04434680628977378</v>
+        <v>0.0343619564459851</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4772075684.469162</v>
+        <v>4844173284.956161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159071653395199</v>
+        <v>0.1157117944127709</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02735925597396595</v>
+        <v>0.02844982239658484</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3639779364.072787</v>
+        <v>3076736316.926684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06773220177851061</v>
+        <v>0.07200033745176573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04170400845749107</v>
+        <v>0.04725524084013732</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2019612254.960357</v>
+        <v>2399862071.258143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1041472583797153</v>
+        <v>0.0949358104752038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03875064829857269</v>
+        <v>0.04172981346935213</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3055916266.420638</v>
+        <v>2825189704.350998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07975487559589971</v>
+        <v>0.0804315123523703</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03713857192471038</v>
+        <v>0.04021202050742976</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2878371969.297539</v>
+        <v>2878473684.719547</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1683814291038061</v>
+        <v>0.2133043076171008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02628065500306348</v>
+        <v>0.02694530219953553</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2139997897.4506</v>
+        <v>1761561352.757104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1321524823481271</v>
+        <v>0.1368098804099474</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03092492740318168</v>
+        <v>0.02526655862869462</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5107901336.834664</v>
+        <v>4630406056.94733</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1539942596400151</v>
+        <v>0.2043071688786097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03560609368371088</v>
+        <v>0.0365365910052637</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3216706371.767632</v>
+        <v>2700188317.384538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1457979447936703</v>
+        <v>0.1894580515242859</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03881447637465062</v>
+        <v>0.04471177996892979</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2032250001.981555</v>
+        <v>3238283290.182873</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1364706534676123</v>
+        <v>0.1252243570937786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04160634304207188</v>
+        <v>0.03380266134826868</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3372871850.942544</v>
+        <v>4845403975.024179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07090322208180742</v>
+        <v>0.0843702293512318</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02489713116513604</v>
+        <v>0.02756112901358974</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3133001969.90526</v>
+        <v>2611253160.346465</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1321428041523794</v>
+        <v>0.1757080801854428</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03272567200486143</v>
+        <v>0.02672374234869281</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1713075676.15316</v>
+        <v>1259174206.565253</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07837909105988575</v>
+        <v>0.08419448450471428</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04166569303693084</v>
+        <v>0.04384431908816809</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2665704304.016467</v>
+        <v>1792952332.237122</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1091977656966858</v>
+        <v>0.08517756781075378</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04846478263626351</v>
+        <v>0.05042121965111246</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4202344887.294179</v>
+        <v>5015517511.597841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1190832404416238</v>
+        <v>0.1328358260085817</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03515387491364146</v>
+        <v>0.03608472980591097</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3317001993.300931</v>
+        <v>2958640459.245754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1802648637625666</v>
+        <v>0.1137262521500427</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02400560036671511</v>
+        <v>0.02496324767384221</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1183476629.623466</v>
+        <v>1055138467.678806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.178526760152083</v>
+        <v>0.1520410647484978</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01814457500836613</v>
+        <v>0.02439160164892944</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2799858314.988841</v>
+        <v>2361932678.613785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1557826083895437</v>
+        <v>0.1517112174217407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03066106130715738</v>
+        <v>0.02038552272043283</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1661157569.703466</v>
+        <v>2672685781.817337</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08102561078693475</v>
+        <v>0.09778293420829438</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03706731643546509</v>
+        <v>0.02934692290615753</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3058263260.457236</v>
+        <v>3681648112.843163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1385292059947039</v>
+        <v>0.09142627434820055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05168488581505461</v>
+        <v>0.03489143159733466</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>943739878.6174499</v>
+        <v>1013460252.313123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1452309148067021</v>
+        <v>0.1581432744439397</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04551543288880408</v>
+        <v>0.04509627364842025</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2537540386.370668</v>
+        <v>3892736960.563728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1429982249654587</v>
+        <v>0.1477392329882452</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03159278241503276</v>
+        <v>0.03135374880217814</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1437804387.490165</v>
+        <v>1235558297.029417</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1142974798177758</v>
+        <v>0.119784113884254</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01972038872964041</v>
+        <v>0.02925654717398779</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1051042714.001307</v>
+        <v>948659859.386363</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07634512799760922</v>
+        <v>0.09560373739411097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03689974595619347</v>
+        <v>0.03403541255308862</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4369922778.880066</v>
+        <v>2983428786.408641</v>
       </c>
       <c r="F27" t="n">
-        <v>0.100346717887759</v>
+        <v>0.140483312241254</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02197192141336031</v>
+        <v>0.01872706093669629</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3613072100.677108</v>
+        <v>3303037148.761726</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1514723470693486</v>
+        <v>0.1222003137705515</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04265122991427066</v>
+        <v>0.04805059281640087</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4276314705.144188</v>
+        <v>4510657525.85654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09349370987007541</v>
+        <v>0.1273374630627002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04278606071244474</v>
+        <v>0.03688662669955495</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1496382180.177662</v>
+        <v>2358897213.276839</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1299405111392872</v>
+        <v>0.1312155689031511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03833194860507075</v>
+        <v>0.03327840313726107</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1235124801.854576</v>
+        <v>1139486110.129264</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08713187086207125</v>
+        <v>0.07879121666652537</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03276965293791497</v>
+        <v>0.04928470818682616</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1705330979.858718</v>
+        <v>1813271526.618336</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08100779045046014</v>
+        <v>0.07288234389533065</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02467671976810314</v>
+        <v>0.02394939422606549</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2378542314.347043</v>
+        <v>3027237236.463171</v>
       </c>
       <c r="F33" t="n">
-        <v>0.203729241623525</v>
+        <v>0.1607682172216817</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04154701765608467</v>
+        <v>0.04069332811537649</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1417292417.535043</v>
+        <v>1573839406.720687</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08416617562512191</v>
+        <v>0.07640127375085756</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02514738654643769</v>
+        <v>0.02426461814692041</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1251738172.786468</v>
+        <v>1155133698.254501</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09591545429995676</v>
+        <v>0.0854765767740439</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02941396837239089</v>
+        <v>0.04307316259613758</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3112468512.794981</v>
+        <v>2929638019.287611</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1782819748054383</v>
+        <v>0.1590441689324737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02082212000811688</v>
+        <v>0.02399927646917657</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2122621471.379488</v>
+        <v>1959940233.527624</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07605502388204924</v>
+        <v>0.07563052045690517</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03514708459942451</v>
+        <v>0.03805376851716529</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1355763444.276514</v>
+        <v>1846468433.855744</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1165423439038848</v>
+        <v>0.07519195563576367</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03360347572724261</v>
+        <v>0.02697466297234754</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1921429056.606642</v>
+        <v>1627725490.843779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1774638176005514</v>
+        <v>0.1339388801549702</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02807541038099995</v>
+        <v>0.02227975985121717</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1177519901.891176</v>
+        <v>1820516761.814393</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1379704001271548</v>
+        <v>0.1040692034659661</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05798095323268052</v>
+        <v>0.06008898453504345</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2016950416.671769</v>
+        <v>2675027882.391165</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1401677430951307</v>
+        <v>0.1582135462371804</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03112080806070538</v>
+        <v>0.03500341580418041</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4196033277.067136</v>
+        <v>4000482119.652859</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1165467454542284</v>
+        <v>0.1170823748563374</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02829536364646297</v>
+        <v>0.04053402708823233</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1972813680.477316</v>
+        <v>2346283618.692595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915906098500952</v>
+        <v>0.1569862930954465</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02317009996690164</v>
+        <v>0.02033154506151887</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2108889150.01321</v>
+        <v>2008546024.290762</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08427437465086149</v>
+        <v>0.08747712422870925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02701670077566086</v>
+        <v>0.03433462233883107</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2053940359.764446</v>
+        <v>1602854312.80439</v>
       </c>
       <c r="F45" t="n">
-        <v>0.12771801018649</v>
+        <v>0.1741710684079074</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0493266914042844</v>
+        <v>0.04840908252569286</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5617540754.827929</v>
+        <v>4305259803.171406</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759640761763551</v>
+        <v>0.1219753765567767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05462680066387293</v>
+        <v>0.04990317820830904</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4517756878.575393</v>
+        <v>3539328537.078562</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1658311007405912</v>
+        <v>0.1262050161491408</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03934244965640269</v>
+        <v>0.03610459171649328</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4576967646.582115</v>
+        <v>4495043051.525856</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06639213955763494</v>
+        <v>0.1080083999375542</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02849051800011351</v>
+        <v>0.03184236730456071</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1795823509.312162</v>
+        <v>1442379111.460906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.171619757604805</v>
+        <v>0.1541154944719101</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0415604421469899</v>
+        <v>0.03657949756013495</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4152175091.31344</v>
+        <v>2733074263.834592</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1447002901586466</v>
+        <v>0.1565647547326635</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04172971127255301</v>
+        <v>0.03744850626221299</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073496607.041555</v>
+        <v>1436709306.564896</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613777420507835</v>
+        <v>0.1185821840847141</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04978209778584823</v>
+        <v>0.04441068744787252</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5187165584.454902</v>
+        <v>3955158429.652808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08695861049102832</v>
+        <v>0.1258687726057104</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05116887863091175</v>
+        <v>0.05633802906177456</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2743308857.101235</v>
+        <v>3309296071.842784</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1942270642881997</v>
+        <v>0.1331015350274336</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02874131176342039</v>
+        <v>0.026783892884997</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4173235511.194564</v>
+        <v>4300935408.40253</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1400046716631478</v>
+        <v>0.1548259224911339</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04890898022222353</v>
+        <v>0.04709175626565522</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3496470683.535527</v>
+        <v>4286487420.193506</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2110242900954036</v>
+        <v>0.1634794679602471</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03188815590396788</v>
+        <v>0.02951750426975693</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1140768292.852282</v>
+        <v>1174194960.969556</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1384334596507195</v>
+        <v>0.1043110777199768</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04303149780619776</v>
+        <v>0.05463554097621045</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4023356566.622565</v>
+        <v>3084303754.170307</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346979697006533</v>
+        <v>0.1801530394965204</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01955998586546307</v>
+        <v>0.01824172534524847</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1631773049.390668</v>
+        <v>1391266271.865164</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1658572989898457</v>
+        <v>0.1724989824935058</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03808511864750316</v>
+        <v>0.02567315599418267</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5366359483.664217</v>
+        <v>3442182433.507747</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09148681023374587</v>
+        <v>0.1127240110440188</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04173185070465973</v>
+        <v>0.04727588361136378</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3082356233.26467</v>
+        <v>2365177083.694012</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2014582118268599</v>
+        <v>0.182917384519344</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02826773196206272</v>
+        <v>0.02028216026679473</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2269961271.358542</v>
+        <v>2576899787.54249</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1498065824396767</v>
+        <v>0.1697059312003362</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02767334745067696</v>
+        <v>0.03002198390269809</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1337400819.705156</v>
+        <v>1492792989.107161</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1283869418420063</v>
+        <v>0.1667241479890751</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03770971095564882</v>
+        <v>0.0487891299872293</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4245912668.734623</v>
+        <v>4365348275.14299</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07600675021808129</v>
+        <v>0.1001700649899455</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04072874343194448</v>
+        <v>0.04675947546732949</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4907029748.24466</v>
+        <v>5346410939.439504</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1258540195509671</v>
+        <v>0.1440449857538158</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02159375938221527</v>
+        <v>0.0289047977762348</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3858377526.526446</v>
+        <v>4696984377.161152</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1095717739740587</v>
+        <v>0.1720966585885109</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02949726655260615</v>
+        <v>0.02233212133034264</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3992604903.149728</v>
+        <v>5527793617.928958</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1190061607227635</v>
+        <v>0.1230911615584108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04882296867778408</v>
+        <v>0.05103047931067032</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2398286288.71914</v>
+        <v>2870827517.116867</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06997273215783439</v>
+        <v>0.08409853713009849</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0316944004152526</v>
+        <v>0.04818943857075636</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5349422774.369754</v>
+        <v>5265054453.275253</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1258557526343764</v>
+        <v>0.1078347773789501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05034008041728045</v>
+        <v>0.03979016248615926</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1895776167.770851</v>
+        <v>2019559213.381196</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1784738947565906</v>
+        <v>0.1305208258946954</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05168887144815149</v>
+        <v>0.03816270247714244</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3094297065.043001</v>
+        <v>2344070187.409909</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06669134927609585</v>
+        <v>0.09434433340490038</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03974864013596661</v>
+        <v>0.03434844977841196</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3702310930.640475</v>
+        <v>5059629332.297873</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1598721190271352</v>
+        <v>0.1682800246348433</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02391459788474307</v>
+        <v>0.03402188923995084</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2015492564.748134</v>
+        <v>1908481115.562614</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09652803278410026</v>
+        <v>0.09166289822327285</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03770995792234383</v>
+        <v>0.03459525458511172</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3585883327.248491</v>
+        <v>2642744718.59929</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08339740583280432</v>
+        <v>0.08004915240110498</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04552665293970059</v>
+        <v>0.05234576037410858</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3434006080.399233</v>
+        <v>2989562869.15761</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1229430193226451</v>
+        <v>0.1760693919218428</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02163386812020803</v>
+        <v>0.02452188762807242</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2073740225.371055</v>
+        <v>1976093497.509379</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1381692407063908</v>
+        <v>0.1545301096571374</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03478128351361847</v>
+        <v>0.03024328326275692</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5326910051.724292</v>
+        <v>5095807341.615964</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08327483622240099</v>
+        <v>0.08010679778725179</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02765557304005771</v>
+        <v>0.03332332016306706</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1659061156.35016</v>
+        <v>1451386690.837107</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1360062012370475</v>
+        <v>0.1484825735321491</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02661326764237452</v>
+        <v>0.02362048079294159</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4687920877.510845</v>
+        <v>4059734034.454773</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1362962443551318</v>
+        <v>0.1335027446454819</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05027231992846807</v>
+        <v>0.03696596569101934</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1542780979.235437</v>
+        <v>1423856976.976418</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256412041934719</v>
+        <v>0.1115494140708785</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02969875319978572</v>
+        <v>0.0302316324426933</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3631146765.349106</v>
+        <v>4982285568.688138</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09752942479147007</v>
+        <v>0.08704508321949422</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02348208242536042</v>
+        <v>0.02965739718382134</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5197634100.601538</v>
+        <v>3348590502.071828</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1336088010426892</v>
+        <v>0.08426115077049579</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02651533811705946</v>
+        <v>0.0309960453978793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4526737421.244604</v>
+        <v>4204892100.123</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1492776601447307</v>
+        <v>0.1318385732866663</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02727395267351069</v>
+        <v>0.0239643920441357</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2224216510.720276</v>
+        <v>1678027937.920019</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1359294166546094</v>
+        <v>0.1562762469891016</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04141855781153194</v>
+        <v>0.03558438610939282</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2479080558.561242</v>
+        <v>2018275773.89481</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08468494664045816</v>
+        <v>0.1056269984435406</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03212378293188672</v>
+        <v>0.03445879941150271</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3259551260.538675</v>
+        <v>2599747821.687016</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1197404017303477</v>
+        <v>0.120011435923376</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03498210417812958</v>
+        <v>0.04111617098105327</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2202976377.351137</v>
+        <v>2103672765.793966</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1583641464710479</v>
+        <v>0.1509394291259952</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01745702686670936</v>
+        <v>0.02499114727988112</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>925315093.289529</v>
+        <v>936490205.4664514</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885200830298234</v>
+        <v>0.1200238314558665</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02969195429654561</v>
+        <v>0.03304337369236338</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2362706005.920171</v>
+        <v>2562373973.575841</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1701879950188241</v>
+        <v>0.1172832093351667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03639610757772063</v>
+        <v>0.02823379708534325</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2147318446.650178</v>
+        <v>2835761764.742853</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1082996450814464</v>
+        <v>0.1375700686711338</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03496126328578113</v>
+        <v>0.03917071623221568</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1347766471.808772</v>
+        <v>1568914022.480731</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09106949570689797</v>
+        <v>0.08556503085339676</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05253936564482006</v>
+        <v>0.03451708302379997</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1699010351.199523</v>
+        <v>1583478891.538956</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1958030381532324</v>
+        <v>0.1869286618360272</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05427129685289925</v>
+        <v>0.04805584189685639</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2641774400.646186</v>
+        <v>2684818360.3346</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06814001605440252</v>
+        <v>0.1064967401037045</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03550648239458678</v>
+        <v>0.04229906683750737</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3837799884.859984</v>
+        <v>3391613184.227164</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1058007106316569</v>
+        <v>0.1037344493941731</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04086078492528493</v>
+        <v>0.04294431814035757</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2335330773.850674</v>
+        <v>1540795624.732269</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1197599495648996</v>
+        <v>0.1666674794247484</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0299427230788799</v>
+        <v>0.0311832233823695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2087369741.301433</v>
+        <v>2237126893.880584</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09024788057503115</v>
+        <v>0.1276614417394431</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04428455120621119</v>
+        <v>0.04237260065853184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1816946250.946812</v>
+        <v>2277150753.892195</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1398372798620843</v>
+        <v>0.127263478416017</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03865075883930235</v>
+        <v>0.04108362736341657</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5220284692.064131</v>
+        <v>3834292108.860513</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1167221630463381</v>
+        <v>0.1169453607715637</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0274124954149705</v>
+        <v>0.01891053955302001</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3729068827.333219</v>
+        <v>3421905489.419261</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0841370819764614</v>
+        <v>0.09550709424571535</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03281888544052872</v>
+        <v>0.03081772108702954</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2114364543.581274</v>
+        <v>2587051654.331573</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1090465236693336</v>
+        <v>0.1335818872498559</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02914770354014677</v>
+        <v>0.03401789780817817</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4682109703.407691</v>
+        <v>4276049919.208688</v>
       </c>
       <c r="F100" t="n">
-        <v>0.126012772071259</v>
+        <v>0.1347131019366576</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02809524385416363</v>
+        <v>0.02235074462801967</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2500538506.384017</v>
+        <v>3257051780.145053</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2169654434814571</v>
+        <v>0.142265396004026</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0405126092774877</v>
+        <v>0.04532840790034385</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_186.xlsx
+++ b/output/fit_clients/fit_round_186.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2023516339.856167</v>
+        <v>1716056725.617338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09759569987552232</v>
+        <v>0.1098260776112846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03253935968392106</v>
+        <v>0.03960324709931932</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1682371238.971043</v>
+        <v>2475682373.213771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1576912212077933</v>
+        <v>0.1308537547491474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0343619564459851</v>
+        <v>0.05004366612484411</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4844173284.956161</v>
+        <v>4795775552.858303</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1157117944127709</v>
+        <v>0.1320959931872002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02844982239658484</v>
+        <v>0.03723904936825144</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>102</v>
+      </c>
+      <c r="J4" t="n">
+        <v>186</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3076736316.926684</v>
+        <v>2609793011.124372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07200033745176573</v>
+        <v>0.1055944189958609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04725524084013732</v>
+        <v>0.04248238912207451</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>184</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2399862071.258143</v>
+        <v>2821096824.803975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0949358104752038</v>
+        <v>0.09024605415798735</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04172981346935213</v>
+        <v>0.05246067389245064</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2825189704.350998</v>
+        <v>3110354512.718181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0804315123523703</v>
+        <v>0.06145045320682808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04021202050742976</v>
+        <v>0.04566329526512644</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2878473684.719547</v>
+        <v>2804058263.86982</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2133043076171008</v>
+        <v>0.1837300352859872</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02694530219953553</v>
+        <v>0.03177818039084174</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>183</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1761561352.757104</v>
+        <v>1890016321.466596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1368098804099474</v>
+        <v>0.180452201158674</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02526655862869462</v>
+        <v>0.02737836667931551</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4630406056.94733</v>
+        <v>5864071462.590519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2043071688786097</v>
+        <v>0.1306589805612781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0365365910052637</v>
+        <v>0.04988976166738232</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J10" t="n">
+        <v>186</v>
+      </c>
+      <c r="K10" t="n">
+        <v>136.0271555683049</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2700188317.384538</v>
+        <v>3324848205.887959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1894580515242859</v>
+        <v>0.1583572966632218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04471177996892979</v>
+        <v>0.0424077718741087</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3238283290.182873</v>
+        <v>2882408069.326996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1252243570937786</v>
+        <v>0.1753110297220409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03380266134826868</v>
+        <v>0.04740103798646005</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4845403975.024179</v>
+        <v>4667201829.189984</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0843702293512318</v>
+        <v>0.07036611448815518</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02756112901358974</v>
+        <v>0.02198698318202966</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>92</v>
+      </c>
+      <c r="J13" t="n">
+        <v>186</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2611253160.346465</v>
+        <v>3568213198.523726</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757080801854428</v>
+        <v>0.1381324147671677</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02672374234869281</v>
+        <v>0.03773265934382557</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>184</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1259174206.565253</v>
+        <v>1781280032.841812</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08419448450471428</v>
+        <v>0.08569570731534207</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04384431908816809</v>
+        <v>0.04440525864598895</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1792952332.237122</v>
+        <v>2079871083.37163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08517756781075378</v>
+        <v>0.1072235010824628</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05042121965111246</v>
+        <v>0.0405616740670727</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1028,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5015517511.597841</v>
+        <v>3681199497.338892</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328358260085817</v>
+        <v>0.1583700399810397</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03608472980591097</v>
+        <v>0.03210250089439482</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>89</v>
+      </c>
+      <c r="J17" t="n">
+        <v>186</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2958640459.245754</v>
+        <v>3336451046.546953</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1137262521500427</v>
+        <v>0.1524909301883741</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02496324767384221</v>
+        <v>0.03224367919594233</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>184</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1055138467.678806</v>
+        <v>959703835.7214438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1520410647484978</v>
+        <v>0.1666314173721432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02439160164892944</v>
+        <v>0.02606924361199468</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1133,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2361932678.613785</v>
+        <v>1749173414.273326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1517112174217407</v>
+        <v>0.1616726947090973</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02038552272043283</v>
+        <v>0.02370091151010832</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2672685781.817337</v>
+        <v>2502037618.353723</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09778293420829438</v>
+        <v>0.1027144972940394</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02934692290615753</v>
+        <v>0.03238926059255533</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3681648112.843163</v>
+        <v>2832422488.995263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09142627434820055</v>
+        <v>0.1258109668283421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03489143159733466</v>
+        <v>0.04070769192351693</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1013460252.313123</v>
+        <v>1020193815.37825</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1581432744439397</v>
+        <v>0.1751082389402796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04509627364842025</v>
+        <v>0.03651876723860782</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1273,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3892736960.563728</v>
+        <v>3560585142.65201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1477392329882452</v>
+        <v>0.1462724159754856</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03135374880217814</v>
+        <v>0.02707936706979733</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>58</v>
+      </c>
+      <c r="J24" t="n">
+        <v>185</v>
+      </c>
+      <c r="K24" t="n">
+        <v>97.88336882632382</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1235558297.029417</v>
+        <v>1144370592.992946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.119784113884254</v>
+        <v>0.1226731716294516</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02925654717398779</v>
+        <v>0.02429008674511634</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>948659859.386363</v>
+        <v>1404252026.241721</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09560373739411097</v>
+        <v>0.08404904229191792</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03403541255308862</v>
+        <v>0.02991833149284303</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2983428786.408641</v>
+        <v>3316243554.723472</v>
       </c>
       <c r="F27" t="n">
-        <v>0.140483312241254</v>
+        <v>0.1293339760057395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01872706093669629</v>
+        <v>0.01963608130786188</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>185</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.59489669569214</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3303037148.761726</v>
+        <v>3287816796.657855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1222003137705515</v>
+        <v>0.09178084715348192</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04805059281640087</v>
+        <v>0.03036142209055739</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="n">
+        <v>90.58226939494183</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4510657525.85654</v>
+        <v>3950538229.94306</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273374630627002</v>
+        <v>0.1049799782059702</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03688662669955495</v>
+        <v>0.03484777155025997</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>175</v>
+      </c>
+      <c r="J29" t="n">
+        <v>186</v>
+      </c>
+      <c r="K29" t="n">
+        <v>142.5809855104559</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2358897213.276839</v>
+        <v>1800071533.760073</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1312155689031511</v>
+        <v>0.09009063160383317</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03327840313726107</v>
+        <v>0.02869616871990243</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1139486110.129264</v>
+        <v>1022004912.678733</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07879121666652537</v>
+        <v>0.06836476631252089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04928470818682616</v>
+        <v>0.04777693191072789</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1813271526.618336</v>
+        <v>1532553645.40578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07288234389533065</v>
+        <v>0.08948706837834836</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02394939422606549</v>
+        <v>0.02386560042651802</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3027237236.463171</v>
+        <v>2162335712.362979</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1607682172216817</v>
+        <v>0.19726379762683</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04069332811537649</v>
+        <v>0.03843577813942785</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1573839406.720687</v>
+        <v>1087122437.768604</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07640127375085756</v>
+        <v>0.07824586903874507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02426461814692041</v>
+        <v>0.02580329854014361</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1155133698.254501</v>
+        <v>1259738589.479956</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0854765767740439</v>
+        <v>0.09872508062588542</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04307316259613758</v>
+        <v>0.03161113698109225</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2929638019.287611</v>
+        <v>2330532749.05236</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1590441689324737</v>
+        <v>0.1697194486362431</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02399927646917657</v>
+        <v>0.01893734545674023</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1959940233.527624</v>
+        <v>2185727970.295206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07563052045690517</v>
+        <v>0.08311220901973794</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03805376851716529</v>
+        <v>0.03437859625982511</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1846468433.855744</v>
+        <v>1455171500.107187</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07519195563576367</v>
+        <v>0.08266814437761635</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02697466297234754</v>
+        <v>0.03737612481346701</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1627725490.843779</v>
+        <v>1773642148.777949</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1339388801549702</v>
+        <v>0.1787445898190985</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02227975985121717</v>
+        <v>0.02720577413463979</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1820516761.814393</v>
+        <v>1471908460.825338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1040692034659661</v>
+        <v>0.1126068130983755</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06008898453504345</v>
+        <v>0.04372062390851868</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2675027882.391165</v>
+        <v>2018137993.365708</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1582135462371804</v>
+        <v>0.1626050178692299</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03500341580418041</v>
+        <v>0.04198820712981962</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4000482119.652859</v>
+        <v>3597484141.379457</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1170823748563374</v>
+        <v>0.1042642810167378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04053402708823233</v>
+        <v>0.03609474474683069</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>186</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2346283618.692595</v>
+        <v>3023541820.087612</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1569862930954465</v>
+        <v>0.2014268642172669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02033154506151887</v>
+        <v>0.02005461120723669</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2008546024.290762</v>
+        <v>2278940827.46277</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08747712422870925</v>
+        <v>0.0887253735337576</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03433462233883107</v>
+        <v>0.02634300072808068</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1602854312.80439</v>
+        <v>1830494997.723773</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1741710684079074</v>
+        <v>0.1807358641402669</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04840908252569286</v>
+        <v>0.03692034971748771</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4305259803.171406</v>
+        <v>3829690393.003561</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1219753765567767</v>
+        <v>0.1526276156857317</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04990317820830904</v>
+        <v>0.04720915852100136</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>106</v>
+      </c>
+      <c r="J46" t="n">
+        <v>185</v>
+      </c>
+      <c r="K46" t="n">
+        <v>126.586486724299</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3539328537.078562</v>
+        <v>4649528890.365677</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1262050161491408</v>
+        <v>0.1320089959014081</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03610459171649328</v>
+        <v>0.05957785327089549</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>82</v>
+      </c>
+      <c r="J47" t="n">
+        <v>186</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4495043051.525856</v>
+        <v>3809017896.79704</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1080083999375542</v>
+        <v>0.06826139508104871</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03184236730456071</v>
+        <v>0.02365200275569374</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>87</v>
+      </c>
+      <c r="J48" t="n">
+        <v>186</v>
+      </c>
+      <c r="K48" t="n">
+        <v>128.1181780287634</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1442379111.460906</v>
+        <v>1714473034.081549</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1541154944719101</v>
+        <v>0.1552811388964665</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03657949756013495</v>
+        <v>0.03257759832093764</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2733074263.834592</v>
+        <v>2608469962.286477</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1565647547326635</v>
+        <v>0.1702720791408864</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03744850626221299</v>
+        <v>0.04935206095319077</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1436709306.564896</v>
+        <v>1018782081.604461</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1185821840847141</v>
+        <v>0.1908055575122965</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04441068744787252</v>
+        <v>0.04816433155286958</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3955158429.652808</v>
+        <v>4300520472.298046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1258687726057104</v>
+        <v>0.0883690118278765</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05633802906177456</v>
+        <v>0.04121042474011984</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>131</v>
+      </c>
+      <c r="J52" t="n">
+        <v>185</v>
+      </c>
+      <c r="K52" t="n">
+        <v>123.6995667443542</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3309296071.842784</v>
+        <v>3265882665.767134</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1331015350274336</v>
+        <v>0.1764666335709136</v>
       </c>
       <c r="G53" t="n">
-        <v>0.026783892884997</v>
+        <v>0.02436224446149326</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="n">
+        <v>84.6703993186498</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4300935408.40253</v>
+        <v>4255983141.394745</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1548259224911339</v>
+        <v>0.1623023698714655</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04709175626565522</v>
+        <v>0.05308266739905579</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>94</v>
+      </c>
+      <c r="J54" t="n">
+        <v>186</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4286487420.193506</v>
+        <v>4600909677.220205</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1634794679602471</v>
+        <v>0.2005127524854093</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02951750426975693</v>
+        <v>0.03069371569875011</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>84</v>
+      </c>
+      <c r="J55" t="n">
+        <v>186</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1174194960.969556</v>
+        <v>1573419282.260479</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1043110777199768</v>
+        <v>0.1306476927853984</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05463554097621045</v>
+        <v>0.05378800714722853</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3084303754.170307</v>
+        <v>4260150126.195319</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1801530394965204</v>
+        <v>0.1713676338571094</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01824172534524847</v>
+        <v>0.01921563934451152</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>74</v>
+      </c>
+      <c r="J57" t="n">
+        <v>186</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1391266271.865164</v>
+        <v>1305792671.647469</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1724989824935058</v>
+        <v>0.176711275807811</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02567315599418267</v>
+        <v>0.03409764448008903</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3442182433.507747</v>
+        <v>5088478446.869563</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1127240110440188</v>
+        <v>0.1117818437256458</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04727588361136378</v>
+        <v>0.03102396577933775</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>89</v>
+      </c>
+      <c r="J59" t="n">
+        <v>186</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2365177083.694012</v>
+        <v>2685188275.727721</v>
       </c>
       <c r="F60" t="n">
-        <v>0.182917384519344</v>
+        <v>0.1778648937024327</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02028216026679473</v>
+        <v>0.02661525395221757</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2576899787.54249</v>
+        <v>2528327005.586824</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1697059312003362</v>
+        <v>0.1456898123941485</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03002198390269809</v>
+        <v>0.02730499486470817</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1492792989.107161</v>
+        <v>1939269099.824574</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1667241479890751</v>
+        <v>0.1280635850873616</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0487891299872293</v>
+        <v>0.04733656186675403</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4365348275.14299</v>
+        <v>4807659901.21909</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1001700649899455</v>
+        <v>0.08694858498470358</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04675947546732949</v>
+        <v>0.04393516506942337</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>91</v>
+      </c>
+      <c r="J63" t="n">
+        <v>186</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5346410939.439504</v>
+        <v>4962135674.67087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1440449857538158</v>
+        <v>0.14090662578784</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0289047977762348</v>
+        <v>0.03559406248532059</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>91</v>
+      </c>
+      <c r="J64" t="n">
+        <v>186</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2724,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4696984377.161152</v>
+        <v>5410555200.916773</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1720966585885109</v>
+        <v>0.1407939622447658</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02233212133034264</v>
+        <v>0.0262669018779455</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>151</v>
+      </c>
+      <c r="J65" t="n">
+        <v>186</v>
+      </c>
+      <c r="K65" t="n">
+        <v>127.5337141038187</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5527793617.928958</v>
+        <v>4930404318.022691</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1230911615584108</v>
+        <v>0.1579021240992844</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05103047931067032</v>
+        <v>0.03198650434303993</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>91</v>
+      </c>
+      <c r="J66" t="n">
+        <v>186</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2870827517.116867</v>
+        <v>2319357314.004196</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08409853713009849</v>
+        <v>0.09532073382679537</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04818943857075636</v>
+        <v>0.05091959770986026</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2825,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5265054453.275253</v>
+        <v>5761879573.981999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1078347773789501</v>
+        <v>0.1358062867061185</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03979016248615926</v>
+        <v>0.04330435850778461</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>93</v>
+      </c>
+      <c r="J68" t="n">
+        <v>186</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2860,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2019559213.381196</v>
+        <v>1538328365.57426</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1305208258946954</v>
+        <v>0.1519964896317442</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03816270247714244</v>
+        <v>0.0561244485503094</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2901,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2344070187.409909</v>
+        <v>2426752096.384798</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09434433340490038</v>
+        <v>0.07902021319056243</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03434844977841196</v>
+        <v>0.0325212070298716</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>185</v>
+      </c>
+      <c r="K70" t="n">
+        <v>46.22884957607119</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5059629332.297873</v>
+        <v>5302236038.199449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1682800246348433</v>
+        <v>0.1626887199498047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402188923995084</v>
+        <v>0.03315182235945349</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>144</v>
+      </c>
+      <c r="J71" t="n">
+        <v>185</v>
+      </c>
+      <c r="K71" t="n">
+        <v>125.8776659259564</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1908481115.562614</v>
+        <v>1969771444.301042</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09166289822327285</v>
+        <v>0.07739247384801486</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03459525458511172</v>
+        <v>0.03770276702431491</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3004,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2642744718.59929</v>
+        <v>2319341084.743364</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08004915240110498</v>
+        <v>0.09096278070586328</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05234576037410858</v>
+        <v>0.04451485234088442</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="n">
+        <v>51.08501435056745</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2989562869.15761</v>
+        <v>3456166784.734479</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1760693919218428</v>
+        <v>0.1253776745333436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02452188762807242</v>
+        <v>0.02588193607628785</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1976093497.509379</v>
+        <v>2392889118.776195</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1545301096571374</v>
+        <v>0.1506042100758169</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03024328326275692</v>
+        <v>0.03297178824782406</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5095807341.615964</v>
+        <v>5197610717.269016</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08010679778725179</v>
+        <v>0.1223055772839583</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03332332016306706</v>
+        <v>0.02189723456324454</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>85</v>
+      </c>
+      <c r="J76" t="n">
+        <v>185</v>
+      </c>
+      <c r="K76" t="n">
+        <v>105.4047076109931</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1451386690.837107</v>
+        <v>1621277694.087312</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484825735321491</v>
+        <v>0.1835555615078911</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02362048079294159</v>
+        <v>0.02698260788287113</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4059734034.454773</v>
+        <v>4158122745.222944</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335027446454819</v>
+        <v>0.09024404141226094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03696596569101934</v>
+        <v>0.04114755288979011</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>95</v>
+      </c>
+      <c r="J78" t="n">
+        <v>186</v>
+      </c>
+      <c r="K78" t="n">
+        <v>128.9342030910974</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1423856976.976418</v>
+        <v>1316958876.972129</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1115494140708785</v>
+        <v>0.1475883299211283</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0302316324426933</v>
+        <v>0.0355245396600261</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4982285568.688138</v>
+        <v>3941318032.187438</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08704508321949422</v>
+        <v>0.08887278534203896</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02965739718382134</v>
+        <v>0.03075607044045559</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>91</v>
+      </c>
+      <c r="J80" t="n">
+        <v>185</v>
+      </c>
+      <c r="K80" t="n">
+        <v>91.98174653095785</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3348590502.071828</v>
+        <v>3372140214.826074</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08426115077049579</v>
+        <v>0.121755908141952</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0309960453978793</v>
+        <v>0.02713876956722806</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>85</v>
+      </c>
+      <c r="J81" t="n">
+        <v>183</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4204892100.123</v>
+        <v>5515056305.663054</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1318385732866663</v>
+        <v>0.1492912835400715</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0239643920441357</v>
+        <v>0.0182264555187729</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>137</v>
+      </c>
+      <c r="J82" t="n">
+        <v>186</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1678027937.920019</v>
+        <v>2420756325.820778</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1562762469891016</v>
+        <v>0.1108917431799656</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03558438610939282</v>
+        <v>0.03874654349074225</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2018275773.89481</v>
+        <v>2027229795.101041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1056269984435406</v>
+        <v>0.1211132815480393</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03445879941150271</v>
+        <v>0.0492788494883743</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2599747821.687016</v>
+        <v>3448010441.49587</v>
       </c>
       <c r="F85" t="n">
-        <v>0.120011435923376</v>
+        <v>0.1792722341923794</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04111617098105327</v>
+        <v>0.05217307139221954</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2103672765.793966</v>
+        <v>2452742978.085322</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1509394291259952</v>
+        <v>0.1338059438508571</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02499114727988112</v>
+        <v>0.02412892429904891</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>936490205.4664514</v>
+        <v>1386150359.83486</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1200238314558665</v>
+        <v>0.1659476610152554</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03304337369236338</v>
+        <v>0.04381770802691154</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2562373973.575841</v>
+        <v>3008657393.048575</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1172832093351667</v>
+        <v>0.1437957087779108</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02823379708534325</v>
+        <v>0.02780858581219048</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="n">
+        <v>81.87783453625431</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2835761764.742853</v>
+        <v>2323004711.26867</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1375700686711338</v>
+        <v>0.09922462539019129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03917071623221568</v>
+        <v>0.0367563173884814</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1568914022.480731</v>
+        <v>1847856673.244826</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08556503085339676</v>
+        <v>0.1100502196430709</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03451708302379997</v>
+        <v>0.04077995213295905</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1583478891.538956</v>
+        <v>2060197557.842388</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1869286618360272</v>
+        <v>0.1368576684942043</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04805584189685639</v>
+        <v>0.05975703681704754</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2684818360.3346</v>
+        <v>2608468240.335123</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1064967401037045</v>
+        <v>0.07343246014020757</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04229906683750737</v>
+        <v>0.04016469214047962</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3391613184.227164</v>
+        <v>5039312960.49686</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037344493941731</v>
+        <v>0.1026452158011157</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04294431814035757</v>
+        <v>0.05227809651491521</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>84</v>
+      </c>
+      <c r="J93" t="n">
+        <v>185</v>
+      </c>
+      <c r="K93" t="n">
+        <v>119.3718646323378</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1540795624.732269</v>
+        <v>2079151766.458722</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1666674794247484</v>
+        <v>0.1061077446564481</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0311832233823695</v>
+        <v>0.02606448945952171</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2237126893.880584</v>
+        <v>2756770677.049164</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1276614417394431</v>
+        <v>0.09535170311151264</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04237260065853184</v>
+        <v>0.03236791587975104</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2277150753.892195</v>
+        <v>1740100661.817634</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127263478416017</v>
+        <v>0.08725085654837123</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04108362736341657</v>
+        <v>0.0422542580001031</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3834292108.860513</v>
+        <v>4221666238.989431</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1169453607715637</v>
+        <v>0.1673904849267629</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01891053955302001</v>
+        <v>0.02516784199196425</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>90</v>
+      </c>
+      <c r="J97" t="n">
+        <v>185</v>
+      </c>
+      <c r="K97" t="n">
+        <v>124.1182401857201</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3421905489.419261</v>
+        <v>3208343392.177366</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09550709424571535</v>
+        <v>0.08307364574572944</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03081772108702954</v>
+        <v>0.02473042851222027</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="n">
+        <v>78.42204881821375</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2587051654.331573</v>
+        <v>3345451473.386424</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1335818872498559</v>
+        <v>0.108264225735877</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03401789780817817</v>
+        <v>0.02906287853374141</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4276049919.208688</v>
+        <v>4199231821.225511</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1347131019366576</v>
+        <v>0.1132613016858107</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02235074462801967</v>
+        <v>0.01881119363755364</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>77</v>
+      </c>
+      <c r="J100" t="n">
+        <v>186</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3257051780.145053</v>
+        <v>2453712438.937797</v>
       </c>
       <c r="F101" t="n">
-        <v>0.142265396004026</v>
+        <v>0.2227965974026865</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04532840790034385</v>
+        <v>0.03585733372280472</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
